--- a/.idea/weeks_sum.xlsx
+++ b/.idea/weeks_sum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,58 +458,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20070100</v>
+        <v>20053000</v>
       </c>
       <c r="B2" t="n">
-        <v>20070500</v>
+        <v>20053100</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>47493916200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20070600</v>
+        <v>20060100</v>
       </c>
       <c r="B3" t="n">
-        <v>20071200</v>
+        <v>20060700</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5809139400</v>
+        <v>151167709600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20071300</v>
+        <v>20060800</v>
       </c>
       <c r="B4" t="n">
-        <v>20071900</v>
+        <v>20061400</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>-81348040828</v>
+        <v>66743213400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20072000</v>
+        <v>20061500</v>
       </c>
       <c r="B5" t="n">
-        <v>20072600</v>
+        <v>20062100</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-59022386671</v>
+        <v>161785551900</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20062200</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20062800</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>63157218800</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20062900</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20070500</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>90527821000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20070600</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20071200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5809139400</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20071300</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20071900</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-81348040828</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20072000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20072600</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-55246386671</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20072700</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20080200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-50391336400</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/weeks_sum.xlsx
+++ b/.idea/weeks_sum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,20 +582,6 @@
         <v>-55246386671</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>20072700</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20080200</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-50391336400</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
